--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\QA-GroupProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D64B3-D7F8-4335-937A-A5ED23B50F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E548FA0-7B13-4FBD-8948-EA10AE12C20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E21DBBCD-6F28-40FC-B4E7-E8CC19F6ECC7}"/>
+    <workbookView xWindow="6960" yWindow="0" windowWidth="21840" windowHeight="15045" xr2:uid="{E21DBBCD-6F28-40FC-B4E7-E8CC19F6ECC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Test Description</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>Goal trigger works properly</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Up and Down are inverted</t>
+  </si>
+  <si>
+    <t>Level 3 doesn’t work</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -585,7 +603,7 @@
   <dimension ref="B2:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +677,12 @@
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -676,6 +700,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -693,6 +723,12 @@
       <c r="F6" t="s">
         <v>40</v>
       </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -710,6 +746,12 @@
       <c r="F7" t="s">
         <v>41</v>
       </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -727,6 +769,12 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -744,6 +792,12 @@
       <c r="F9" t="s">
         <v>49</v>
       </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -758,6 +812,12 @@
       <c r="F10" t="s">
         <v>50</v>
       </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -774,6 +834,12 @@
       </c>
       <c r="F11" t="s">
         <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
